--- a/src/kraken_files/excel_files/BCHUSD.xlsx
+++ b/src/kraken_files/excel_files/BCHUSD.xlsx
@@ -484,16 +484,16 @@
         <v>0.0625</v>
       </c>
       <c r="D2" t="n">
-        <v>556.5428189759999</v>
+        <v>568.745654736</v>
       </c>
       <c r="E2" t="n">
-        <v>568.9751768879999</v>
+        <v>581.450606268</v>
       </c>
       <c r="F2" t="n">
-        <v>574.6649286568799</v>
+        <v>587.26511233068</v>
       </c>
       <c r="G2" t="n">
-        <v>3.153508901828295</v>
+        <v>3.153508901828317</v>
       </c>
     </row>
     <row r="3">
@@ -507,16 +507,16 @@
         <v>0.15625</v>
       </c>
       <c r="D3" t="n">
-        <v>527.16865760256</v>
+        <v>538.72743138816</v>
       </c>
       <c r="E3" t="n">
-        <v>548.0719172452799</v>
+        <v>560.08901882808</v>
       </c>
       <c r="F3" t="n">
-        <v>553.5526364177327</v>
+        <v>565.6899090163608</v>
       </c>
       <c r="G3" t="n">
-        <v>4.766299910684991</v>
+        <v>4.766299910685001</v>
       </c>
     </row>
     <row r="4">
@@ -530,16 +530,16 @@
         <v>0.390625</v>
       </c>
       <c r="D4" t="n">
-        <v>481.3449658480899</v>
+        <v>491.899002953365</v>
       </c>
       <c r="E4" t="n">
-        <v>514.708441546685</v>
+        <v>525.9940108907225</v>
       </c>
       <c r="F4" t="n">
-        <v>519.8555259621519</v>
+        <v>531.2539509996298</v>
       </c>
       <c r="G4" t="n">
-        <v>7.407935126357723</v>
+        <v>7.407935126357701</v>
       </c>
     </row>
     <row r="5">
@@ -553,13 +553,13 @@
         <v>0.9765625</v>
       </c>
       <c r="D5" t="n">
-        <v>409.860006734924</v>
+        <v>418.846654619414</v>
       </c>
       <c r="E5" t="n">
-        <v>462.2842241408044</v>
+        <v>472.4203327550683</v>
       </c>
       <c r="F5" t="n">
-        <v>466.9070663822125</v>
+        <v>477.144536082619</v>
       </c>
       <c r="G5" t="n">
         <v>12.21807587735019</v>
@@ -576,16 +576,16 @@
         <v>2.44140625</v>
       </c>
       <c r="D6" t="n">
-        <v>298.34347050172</v>
+        <v>304.88499120142</v>
       </c>
       <c r="E6" t="n">
-        <v>380.3138473212622</v>
+        <v>388.6526619782442</v>
       </c>
       <c r="F6" t="n">
-        <v>384.1169857944748</v>
+        <v>392.5391885980266</v>
       </c>
       <c r="G6" t="n">
-        <v>22.33005007975584</v>
+        <v>22.33005007975585</v>
       </c>
     </row>
   </sheetData>
@@ -599,7 +599,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -622,21 +622,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>OCFO4M-KEHXN-JNK4SK</t>
+          <t>OPMBXR-NPKGL-ELMYOV</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>593.3099999999999</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>O23QIB-KZVRV-O2MGWK</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>587.22</v>
+        <v>600.09</v>
       </c>
     </row>
   </sheetData>
@@ -650,7 +640,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -668,7 +658,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>OIN5LG-IQ24Y-DS262N</t>
+          <t>OM25BV-KJA3H-7HLR4M</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>O5A2K4-OKJPP-KUKHM3</t>
         </is>
       </c>
     </row>
